--- a/dataBase/orkAncestry.xlsx
+++ b/dataBase/orkAncestry.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJEKTY\CODING\pythonProject\dataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D7ACC5-B161-439A-8082-30DD9A4DFE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD22B92-7FB7-4912-83A7-196273299D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="628" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="goblinAncestry" sheetId="1" r:id="rId1"/>
+    <sheet name="orkAncestry" sheetId="1" r:id="rId1"/>
     <sheet name="Wiek" sheetId="5" r:id="rId2"/>
     <sheet name="Budowa Ciała" sheetId="7" r:id="rId3"/>
     <sheet name="Przeszłość" sheetId="2" r:id="rId4"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="87">
   <si>
     <t>0.5</t>
   </si>
@@ -134,39 +134,12 @@
     <t>result</t>
   </si>
   <si>
-    <t>2k6 miedziaków</t>
-  </si>
-  <si>
-    <t>Elifcki</t>
-  </si>
-  <si>
     <t>Utrzymujesz się z pracy w swojej profesji.</t>
   </si>
   <si>
     <t>addition</t>
   </si>
   <si>
-    <t>losowa profesja przestępcza</t>
-  </si>
-  <si>
-    <t>Mówisz w dodatkowym dowolnym jezyku</t>
-  </si>
-  <si>
-    <t>Nóż</t>
-  </si>
-  <si>
-    <t>Kosmyk Włosów Królowej Faerie</t>
-  </si>
-  <si>
-    <t>Szlachecki Sygnet</t>
-  </si>
-  <si>
-    <t>1 punkt szaleństwa</t>
-  </si>
-  <si>
-    <t>1 punkt splugawienia</t>
-  </si>
-  <si>
     <t>Dziecko, 8 lat lub mniej</t>
   </si>
   <si>
@@ -315,6 +288,9 @@
   </si>
   <si>
     <t>Wierzysz, że twój lud dokonał w imię Imperium wielkiego zła. Starasz się naprawić te krzywdy.</t>
+  </si>
+  <si>
+    <t>Mroczna Mowa</t>
   </si>
 </sst>
 </file>
@@ -420,23 +396,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -734,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +727,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -765,7 +735,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -773,7 +743,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
@@ -800,7 +770,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -808,7 +778,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -848,7 +818,7 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -867,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -904,7 +874,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -915,64 +885,64 @@
       <c r="A2" s="2">
         <v>3</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>45</v>
+      <c r="B2" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>46</v>
+      <c r="B3" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>47</v>
+      <c r="B4" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>48</v>
+      <c r="B5" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>49</v>
+      <c r="B6" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>50</v>
+      <c r="B7" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
+      <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
+      <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
+      <c r="B16" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -985,7 +955,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +965,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1006,97 +976,97 @@
       <c r="A2" s="2">
         <v>3</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>51</v>
+      <c r="B2" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>52</v>
+      <c r="B3" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>53</v>
+      <c r="B4" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>54</v>
+      <c r="B5" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>55</v>
+      <c r="B6" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>56</v>
+      <c r="B7" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>57</v>
+      <c r="B8" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>58</v>
+      <c r="B9" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>59</v>
+      <c r="B10" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="11"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="13"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="13"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="13"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="11"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="11"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="11"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="11"/>
+      <c r="C24" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1108,208 +1078,184 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="90.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="B6" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
+    <row r="13" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
-        <v>16</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
-        <v>17</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
-        <v>18</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
-        <v>19</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
-        <v>20</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1323,7 +1269,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,138 +1279,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>3</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>86</v>
+      <c r="B2" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>87</v>
+      <c r="B3" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>88</v>
+      <c r="B4" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>89</v>
+      <c r="B5" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>90</v>
+      <c r="B6" s="10" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>91</v>
+      <c r="B7" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>92</v>
+      <c r="B8" s="10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>17</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>93</v>
+      <c r="B9" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>18</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>94</v>
+      <c r="B10" s="10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
+      <c r="B13" s="9"/>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
+      <c r="B20" s="9"/>
     </row>
     <row r="25" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
+      <c r="B25" s="9"/>
     </row>
     <row r="26" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
+      <c r="B26" s="9"/>
     </row>
     <row r="27" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
+      <c r="B27" s="11"/>
     </row>
     <row r="28" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="13"/>
+      <c r="B28" s="11"/>
     </row>
     <row r="29" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="13"/>
+      <c r="B29" s="11"/>
     </row>
     <row r="30" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="11"/>
+      <c r="B30" s="9"/>
     </row>
     <row r="31" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="11"/>
+      <c r="B31" s="9"/>
     </row>
     <row r="32" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="11"/>
+      <c r="B32" s="9"/>
     </row>
     <row r="33" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="11"/>
+      <c r="B33" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1476,127 +1422,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C1A233-0509-402B-B85D-4518C9CFAD27}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>60</v>
+      <c r="A2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>61</v>
+      <c r="A3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>62</v>
+      <c r="B4" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>63</v>
+      <c r="B5" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>64</v>
+      <c r="B6" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="A7" s="12">
         <v>18</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>65</v>
+      <c r="B7" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="10"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="10"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="10"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="10"/>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="10"/>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="10"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
